--- a/REPORT/Econometrics report/final_data.xlsx
+++ b/REPORT/Econometrics report/final_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hong/Desktop/github/Econometrics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkdrn\Documents\R\REPORT\Econometrics report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202A4D0C-05A7-F94F-9A07-6C93FD83049A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D461164C-57A0-489F-916F-52C9E19C4DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="500" windowWidth="19660" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="360" windowWidth="35025" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="code_0" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>2) 휴일근로시간=초과근로시간 중 휴일에 근로한 시간</t>
   </si>
   <si>
-    <t>3) 월임금총액=정액급여+초과급여+전년도연간특별급여/12개월</t>
-  </si>
-  <si>
     <t xml:space="preserve">   * 연간특별급여는 월간 변동성이 커서 연간으로 조사되어야 하나 동 조사는 매년 6월 기준 조사이므로 당해연도 연간특별급여를 조사할 수 없어, 전년도 연간특별급여를 조사하고 이를 12개월로 나누어 당해연도 6월 임금총액에 합산함</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◇ 근속년수: 근로자가 현 사업체에 입사한 날로부터 조사대상 기준일까지 근무한 기간을 말하며, 다음 기준이 적용됨</t>
-  </si>
-  <si>
     <t>° 수습 및 견습기간 등은 근속년수에 포함</t>
   </si>
   <si>
@@ -277,12 +271,294 @@
     <t>edu_u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>3) 월임금총액=정액급여+초과급여+전년도연간특별급여/12개월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="1"/>
+      </rPr>
+      <t>◇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근속년수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근로자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사업체에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입사한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날로부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조사대상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준일까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근무한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기간을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말하며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용됨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +596,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -348,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -363,6 +658,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -646,13 +942,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,25 +971,25 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -734,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -775,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -816,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -857,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -898,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -939,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -980,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1021,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1062,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1103,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1144,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1185,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1226,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1267,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1308,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1349,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1390,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1431,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1472,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1513,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1554,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1595,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1636,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1677,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1718,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1759,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1800,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1841,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1882,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1923,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1964,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2005,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2046,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2087,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2128,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2169,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2210,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2251,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2292,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2333,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2374,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2415,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2456,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2497,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2538,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2579,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2620,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2661,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2702,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2743,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2784,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2825,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2866,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2907,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2948,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3003,9 +3299,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3028,13 +3324,13 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3063,7 +3359,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3092,7 +3388,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3121,7 +3417,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3150,7 +3446,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3179,7 +3475,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3208,7 +3504,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3237,7 +3533,7 @@
         <v>8490</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3266,7 +3562,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3295,7 +3591,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3324,7 +3620,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3353,7 +3649,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3382,7 +3678,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3411,7 +3707,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3440,7 +3736,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3469,7 +3765,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3498,7 +3794,7 @@
         <v>75075</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3527,7 +3823,7 @@
         <v>87333</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3556,7 +3852,7 @@
         <v>115113</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3585,7 +3881,7 @@
         <v>115797</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3614,7 +3910,7 @@
         <v>150374</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3643,7 +3939,7 @@
         <v>171049</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3672,7 +3968,7 @@
         <v>10143</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3701,7 +3997,7 @@
         <v>18714</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3730,7 +4026,7 @@
         <v>18780</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3759,7 +4055,7 @@
         <v>19058</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3788,7 +4084,7 @@
         <v>25030</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3817,7 +4113,7 @@
         <v>46040</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3846,7 +4142,7 @@
         <v>53568</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3875,7 +4171,7 @@
         <v>7718</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3904,7 +4200,7 @@
         <v>30442</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3933,7 +4229,7 @@
         <v>37630</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3962,7 +4258,7 @@
         <v>48772</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3991,7 +4287,7 @@
         <v>31938</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4020,7 +4316,7 @@
         <v>27862</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4049,7 +4345,7 @@
         <v>19909</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4078,7 +4374,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4107,7 +4403,7 @@
         <v>4077</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4136,7 +4432,7 @@
         <v>5182</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4165,7 +4461,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4194,7 +4490,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4223,7 +4519,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4252,7 +4548,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4281,7 +4577,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4310,7 +4606,7 @@
         <v>23211</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4339,7 +4635,7 @@
         <v>30232</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4368,7 +4664,7 @@
         <v>31919</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4397,7 +4693,7 @@
         <v>24245</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4426,7 +4722,7 @@
         <v>20202</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4455,7 +4751,7 @@
         <v>16588</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4484,7 +4780,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4513,7 +4809,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4542,7 +4838,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4571,7 +4867,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4600,7 +4896,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4629,7 +4925,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4672,9 +4968,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4697,13 +4993,13 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4732,7 +5028,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4761,7 +5057,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4790,7 +5086,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4819,7 +5115,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4848,7 +5144,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4877,7 +5173,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4906,7 +5202,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4935,7 +5231,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4964,7 +5260,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4993,7 +5289,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5022,7 +5318,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5051,7 +5347,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5080,7 +5376,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5109,7 +5405,7 @@
         <v>5735</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5138,7 +5434,7 @@
         <v>19643</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5167,7 +5463,7 @@
         <v>26308</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5196,7 +5492,7 @@
         <v>25481</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5225,7 +5521,7 @@
         <v>28094</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5254,7 +5550,7 @@
         <v>25150</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5283,7 +5579,7 @@
         <v>28299</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5312,7 +5608,7 @@
         <v>31720</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5341,7 +5637,7 @@
         <v>7349</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5370,7 +5666,7 @@
         <v>7661</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5399,7 +5695,7 @@
         <v>9115</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5428,7 +5724,7 @@
         <v>14350</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5457,7 +5753,7 @@
         <v>24738</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5486,7 +5782,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5515,7 +5811,7 @@
         <v>73828</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5544,7 +5840,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5573,7 +5869,7 @@
         <v>6520</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5602,7 +5898,7 @@
         <v>6689</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5631,7 +5927,7 @@
         <v>8602</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5660,7 +5956,7 @@
         <v>5335</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5689,7 +5985,7 @@
         <v>4876</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5718,7 +6014,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5747,7 +6043,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5776,7 +6072,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5805,7 +6101,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5834,7 +6130,7 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5863,7 +6159,7 @@
         <v>4641</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5892,7 +6188,7 @@
         <v>5826</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5921,7 +6217,7 @@
         <v>6212</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5950,7 +6246,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5979,7 +6275,7 @@
         <v>5203</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6008,7 +6304,7 @@
         <v>6132</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6037,7 +6333,7 @@
         <v>5692</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6066,7 +6362,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6095,7 +6391,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6124,7 +6420,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6153,7 +6449,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6182,7 +6478,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6211,7 +6507,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6240,7 +6536,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6269,7 +6565,7 @@
         <v>3162</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6298,7 +6594,7 @@
         <v>4656</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6337,39 +6633,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FADABD-80AF-47F5-90F4-008A8E8C141E}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -6377,23 +6673,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -6401,7 +6697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6409,7 +6705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -6417,7 +6713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6426,7 +6722,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -6435,120 +6731,120 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>40</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>41</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -6557,7 +6853,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -6566,7 +6862,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -6575,7 +6871,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -6584,7 +6880,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -6593,16 +6889,16 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -6611,14 +6907,14 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -6627,7 +6923,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -6636,87 +6932,87 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="6" t="s">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="6" t="s">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="6"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -6737,9 +7033,9 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6762,18 +7058,18 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -6782,27 +7078,27 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -6811,27 +7107,27 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -6840,22 +7136,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6884,12 +7180,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -6898,22 +7194,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6942,7 +7238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6971,12 +7267,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -6985,27 +7281,27 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -7014,27 +7310,27 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -7043,27 +7339,27 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -7072,27 +7368,27 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -7101,22 +7397,22 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7145,12 +7441,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -7159,27 +7455,27 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -7188,22 +7484,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7232,7 +7528,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7261,7 +7557,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7290,7 +7586,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7319,7 +7615,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7348,7 +7644,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7377,12 +7673,12 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -7391,22 +7687,22 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7435,7 +7731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7464,7 +7760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7493,7 +7789,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7522,7 +7818,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7551,7 +7847,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7580,12 +7876,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>14</v>
@@ -7594,22 +7890,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7638,7 +7934,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7667,7 +7963,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7696,7 +7992,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7725,7 +8021,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7754,7 +8050,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7783,7 +8079,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7812,7 +8108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7841,7 +8137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7870,7 +8166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7899,7 +8195,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7928,7 +8224,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7957,7 +8253,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7986,7 +8282,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8015,7 +8311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8044,7 +8340,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8073,7 +8369,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8102,7 +8398,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8131,7 +8427,7 @@
         <v>7994</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8160,7 +8456,7 @@
         <v>18271</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8189,7 +8485,7 @@
         <v>24496</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8218,7 +8514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8247,7 +8543,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8276,7 +8572,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8305,7 +8601,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8334,7 +8630,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -8363,7 +8659,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8406,9 +8702,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8431,13 +8727,13 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8466,7 +8762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8495,7 +8791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8524,7 +8820,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8553,7 +8849,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8582,7 +8878,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8611,7 +8907,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8640,7 +8936,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8669,7 +8965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8698,7 +8994,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8727,7 +9023,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8756,7 +9052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8785,7 +9081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8814,7 +9110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8843,7 +9139,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8872,7 +9168,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8901,7 +9197,7 @@
         <v>12781</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8930,7 +9226,7 @@
         <v>11067</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8959,7 +9255,7 @@
         <v>16195</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8988,7 +9284,7 @@
         <v>15043</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9017,7 +9313,7 @@
         <v>19184</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9046,7 +9342,7 @@
         <v>18564</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9075,7 +9371,7 @@
         <v>10294</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9104,7 +9400,7 @@
         <v>12463</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9133,7 +9429,7 @@
         <v>10038</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9162,7 +9458,7 @@
         <v>14295</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9191,7 +9487,7 @@
         <v>18778</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9220,7 +9516,7 @@
         <v>27661</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9249,7 +9545,7 @@
         <v>23559</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9278,7 +9574,7 @@
         <v>9470</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9307,7 +9603,7 @@
         <v>34189</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9336,7 +9632,7 @@
         <v>31700</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9365,7 +9661,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9394,7 +9690,7 @@
         <v>34750</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9423,7 +9719,7 @@
         <v>31949</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9452,7 +9748,7 @@
         <v>16746</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9481,7 +9777,7 @@
         <v>46914</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9510,7 +9806,7 @@
         <v>67831</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9539,7 +9835,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9568,7 +9864,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9597,7 +9893,7 @@
         <v>46825</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9626,7 +9922,7 @@
         <v>40082</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9655,7 +9951,7 @@
         <v>25230</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9684,7 +9980,7 @@
         <v>10540</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9713,7 +10009,7 @@
         <v>175494</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9742,7 +10038,7 @@
         <v>230325</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9771,7 +10067,7 @@
         <v>266400</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9800,7 +10096,7 @@
         <v>210613</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9829,7 +10125,7 @@
         <v>182667</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9858,7 +10154,7 @@
         <v>112274</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9887,7 +10183,7 @@
         <v>56364</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9916,7 +10212,7 @@
         <v>187914</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9945,7 +10241,7 @@
         <v>140839</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9974,7 +10270,7 @@
         <v>117489</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10003,7 +10299,7 @@
         <v>92256</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10032,7 +10328,7 @@
         <v>75659</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10075,9 +10371,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10100,13 +10396,13 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10135,7 +10431,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10164,7 +10460,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10193,7 +10489,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10222,7 +10518,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10251,7 +10547,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10280,7 +10576,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10309,7 +10605,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10338,7 +10634,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10367,7 +10663,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10396,7 +10692,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10425,7 +10721,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10454,7 +10750,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10483,7 +10779,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10512,7 +10808,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10541,7 +10837,7 @@
         <v>13741</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10570,7 +10866,7 @@
         <v>22925</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10599,7 +10895,7 @@
         <v>26121</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10628,7 +10924,7 @@
         <v>37921</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10657,7 +10953,7 @@
         <v>40405</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10686,7 +10982,7 @@
         <v>52945</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10715,7 +11011,7 @@
         <v>54985</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10744,7 +11040,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10773,7 +11069,7 @@
         <v>30045</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10802,7 +11098,7 @@
         <v>29354</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10831,7 +11127,7 @@
         <v>46104</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10860,7 +11156,7 @@
         <v>60182</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10889,7 +11185,7 @@
         <v>72234</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10918,7 +11214,7 @@
         <v>48520</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10947,7 +11243,7 @@
         <v>5214</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10976,7 +11272,7 @@
         <v>25471</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11005,7 +11301,7 @@
         <v>31222</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11034,7 +11330,7 @@
         <v>47539</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11063,7 +11359,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11092,7 +11388,7 @@
         <v>38688</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11121,7 +11417,7 @@
         <v>25383</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11150,7 +11446,7 @@
         <v>27113</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11179,7 +11475,7 @@
         <v>56084</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11208,7 +11504,7 @@
         <v>47008</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11237,7 +11533,7 @@
         <v>61628</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11266,7 +11562,7 @@
         <v>51519</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11295,7 +11591,7 @@
         <v>38430</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11324,7 +11620,7 @@
         <v>20465</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11353,7 +11649,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11382,7 +11678,7 @@
         <v>106902</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11411,7 +11707,7 @@
         <v>173242</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11440,7 +11736,7 @@
         <v>201150</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11469,7 +11765,7 @@
         <v>176828</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11498,7 +11794,7 @@
         <v>169816</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11527,7 +11823,7 @@
         <v>131352</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11556,7 +11852,7 @@
         <v>32087</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11585,7 +11881,7 @@
         <v>160648</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11614,7 +11910,7 @@
         <v>152261</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11643,7 +11939,7 @@
         <v>123261</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11672,7 +11968,7 @@
         <v>86967</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11701,7 +11997,7 @@
         <v>64034</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11744,9 +12040,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11769,13 +12065,13 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11804,7 +12100,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11833,7 +12129,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11862,7 +12158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11891,7 +12187,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11920,7 +12216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11949,7 +12245,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11978,7 +12274,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12007,7 +12303,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12036,7 +12332,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12065,7 +12361,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12094,7 +12390,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12123,7 +12419,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12152,7 +12448,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12181,7 +12477,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12210,7 +12506,7 @@
         <v>10087</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12239,7 +12535,7 @@
         <v>12832</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12268,7 +12564,7 @@
         <v>7943</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12297,7 +12593,7 @@
         <v>9095</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12326,7 +12622,7 @@
         <v>8582</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12355,7 +12651,7 @@
         <v>10373</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12384,7 +12680,7 @@
         <v>7868</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12413,7 +12709,7 @@
         <v>13737</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12442,7 +12738,7 @@
         <v>7931</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12471,7 +12767,7 @@
         <v>4853</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12500,7 +12796,7 @@
         <v>7809</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12529,7 +12825,7 @@
         <v>12831</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12558,7 +12854,7 @@
         <v>32297</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12587,7 +12883,7 @@
         <v>58503</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12616,7 +12912,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12645,7 +12941,7 @@
         <v>8119</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12674,7 +12970,7 @@
         <v>5421</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12703,7 +12999,7 @@
         <v>6658</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12732,7 +13028,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12761,7 +13057,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12790,7 +13086,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12819,7 +13115,7 @@
         <v>9928</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12848,7 +13144,7 @@
         <v>10040</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12877,7 +13173,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12906,7 +13202,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12935,7 +13231,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12964,7 +13260,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12993,7 +13289,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13022,7 +13318,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13051,7 +13347,7 @@
         <v>8274</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13080,7 +13376,7 @@
         <v>7135</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13109,7 +13405,7 @@
         <v>6195</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13138,7 +13434,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13167,7 +13463,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13196,7 +13492,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13225,7 +13521,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -13254,7 +13550,7 @@
         <v>9323</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -13283,7 +13579,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13312,7 +13608,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13341,7 +13637,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13370,7 +13666,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13413,9 +13709,9 @@
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13438,18 +13734,18 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -13458,22 +13754,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13502,7 +13798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13531,7 +13827,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13560,7 +13856,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13589,7 +13885,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13618,7 +13914,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13647,7 +13943,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13676,7 +13972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13705,7 +14001,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13734,7 +14030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13763,7 +14059,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13792,7 +14088,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13821,7 +14117,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13850,7 +14146,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13879,7 +14175,7 @@
         <v>9639</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13908,7 +14204,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13937,7 +14233,7 @@
         <v>13619</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13966,7 +14262,7 @@
         <v>13322</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13995,7 +14291,7 @@
         <v>14146</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14024,7 +14320,7 @@
         <v>16651</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14053,7 +14349,7 @@
         <v>11816</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14082,7 +14378,7 @@
         <v>13837</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14111,7 +14407,7 @@
         <v>15689</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14140,7 +14436,7 @@
         <v>13703</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14169,7 +14465,7 @@
         <v>14716</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14198,7 +14494,7 @@
         <v>20361</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -14227,7 +14523,7 @@
         <v>36145</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14256,7 +14552,7 @@
         <v>36957</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -14285,7 +14581,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -14314,7 +14610,7 @@
         <v>9071</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -14343,7 +14639,7 @@
         <v>10319</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -14372,7 +14668,7 @@
         <v>14403</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -14401,7 +14697,7 @@
         <v>11587</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -14430,7 +14726,7 @@
         <v>8161</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -14459,7 +14755,7 @@
         <v>4952</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -14488,7 +14784,7 @@
         <v>4277</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -14517,7 +14813,7 @@
         <v>8283</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -14546,7 +14842,7 @@
         <v>5466</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -14575,7 +14871,7 @@
         <v>5498</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -14604,7 +14900,7 @@
         <v>6613</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -14633,7 +14929,7 @@
         <v>6402</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -14662,7 +14958,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -14691,7 +14987,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -14720,7 +15016,7 @@
         <v>26406</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -14749,7 +15045,7 @@
         <v>38396</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -14778,7 +15074,7 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -14807,7 +15103,7 @@
         <v>35630</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -14836,7 +15132,7 @@
         <v>25773</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -14865,7 +15161,7 @@
         <v>16735</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -14894,7 +15190,7 @@
         <v>3664</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -14923,7 +15219,7 @@
         <v>16757</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -14952,7 +15248,7 @@
         <v>13519</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -14981,7 +15277,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -15010,7 +15306,7 @@
         <v>7885</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -15039,7 +15335,7 @@
         <v>8467</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -15082,9 +15378,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15107,13 +15403,13 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15142,7 +15438,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15171,7 +15467,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15200,7 +15496,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15229,7 +15525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15258,7 +15554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15287,7 +15583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15316,7 +15612,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15345,7 +15641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15374,7 +15670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15403,7 +15699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15432,7 +15728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15461,7 +15757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15490,7 +15786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15519,7 +15815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15548,7 +15844,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15577,7 +15873,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15606,7 +15902,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15635,7 +15931,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15664,7 +15960,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15693,7 +15989,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15722,7 +16018,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15751,7 +16047,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15780,7 +16076,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15809,7 +16105,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15838,7 +16134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15867,7 +16163,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15896,7 +16192,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15925,7 +16221,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15954,7 +16250,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -15983,7 +16279,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -16012,7 +16308,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -16041,7 +16337,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -16070,7 +16366,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -16099,7 +16395,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -16128,7 +16424,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -16157,7 +16453,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -16186,7 +16482,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -16215,7 +16511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -16244,7 +16540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -16273,7 +16569,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -16302,7 +16598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -16331,7 +16627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -16360,7 +16656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -16389,7 +16685,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -16418,7 +16714,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -16447,7 +16743,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -16476,7 +16772,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -16505,7 +16801,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -16534,7 +16830,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -16563,7 +16859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -16592,7 +16888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -16621,7 +16917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -16650,7 +16946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -16679,7 +16975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -16708,7 +17004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -16751,9 +17047,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16776,13 +17072,13 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16811,7 +17107,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16840,7 +17136,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16869,7 +17165,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16898,7 +17194,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16927,7 +17223,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16956,7 +17252,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16985,7 +17281,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17014,7 +17310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17043,7 +17339,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -17072,7 +17368,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -17101,7 +17397,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17130,7 +17426,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17159,7 +17455,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17188,7 +17484,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17217,7 +17513,7 @@
         <v>12552</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17246,7 +17542,7 @@
         <v>22852</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17275,7 +17571,7 @@
         <v>21278</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17304,7 +17600,7 @@
         <v>34113</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17333,7 +17629,7 @@
         <v>42852</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17362,7 +17658,7 @@
         <v>52678</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17391,7 +17687,7 @@
         <v>54923</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17420,7 +17716,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17449,7 +17745,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17478,7 +17774,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17507,7 +17803,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17536,7 +17832,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17565,7 +17861,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17594,7 +17890,7 @@
         <v>12506</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17623,7 +17919,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17652,7 +17948,7 @@
         <v>18818</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17681,7 +17977,7 @@
         <v>16832</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17710,7 +18006,7 @@
         <v>27693</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17739,7 +18035,7 @@
         <v>20457</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17768,7 +18064,7 @@
         <v>18464</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17797,7 +18093,7 @@
         <v>9760</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17826,7 +18122,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17855,7 +18151,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17884,7 +18180,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17913,7 +18209,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17942,7 +18238,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17971,7 +18267,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -18000,7 +18296,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -18029,7 +18325,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -18058,7 +18354,7 @@
         <v>16639</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -18087,7 +18383,7 @@
         <v>19151</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -18116,7 +18412,7 @@
         <v>23405</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -18145,7 +18441,7 @@
         <v>18392</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -18174,7 +18470,7 @@
         <v>15976</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -18203,7 +18499,7 @@
         <v>11072</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -18232,7 +18528,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -18261,7 +18557,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -18290,7 +18586,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -18319,7 +18615,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18348,7 +18644,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18377,7 +18673,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
